--- a/DATA_goal/Junction_Flooding_453.xlsx
+++ b/DATA_goal/Junction_Flooding_453.xlsx
@@ -443,25 +443,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -471,7 +471,7 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44784.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.26</v>
+        <v>22.62</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.18</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.91</v>
+        <v>29.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.93</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>118.56</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>2.69</v>
+        <v>26.85</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.41</v>
+        <v>24.14</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.42</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="AB4" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T5" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.56</v>
       </c>
-      <c r="U5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_453.xlsx
+++ b/DATA_goal/Junction_Flooding_453.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.54861111111</v>
+        <v>45134.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.55555555555</v>
+        <v>45134.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.29</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.78</v>
+        <v>9.433</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.678</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.62</v>
+        <v>29.109</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.18</v>
+        <v>23.078</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.56</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.06</v>
+        <v>40.956</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.57</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.07</v>
+        <v>6.975</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>10.159</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.02</v>
+        <v>11.637</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.93</v>
+        <v>12.142</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.18</v>
+        <v>3.382</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.34</v>
+        <v>14.78</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.05</v>
+        <v>9.178000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.499</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.66</v>
+        <v>1.003</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.56</v>
+        <v>152.912</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.08</v>
+        <v>29.48</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.11</v>
+        <v>19.416</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.44</v>
+        <v>10.053</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.11</v>
+        <v>2.063</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.83</v>
+        <v>19.945</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.44</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.32</v>
+        <v>7.725</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.51</v>
+        <v>9.161</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.18</v>
+        <v>12.191</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.85</v>
+        <v>37.542</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.63</v>
+        <v>5.297</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.24</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.5625</v>
+        <v>45134.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.49</v>
+        <v>24.502</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.64</v>
+        <v>17.961</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5</v>
+        <v>1.579</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.53</v>
+        <v>53.236</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.24</v>
+        <v>43.302</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.5</v>
+        <v>19.282</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.14</v>
+        <v>72.86</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>29.668</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.47</v>
+        <v>13.107</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.86</v>
+        <v>19.354</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.59</v>
+        <v>21.353</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.24</v>
+        <v>22.484</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.31</v>
+        <v>6.159</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.02</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.27</v>
+        <v>27.231</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.16</v>
+        <v>16.231</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.101</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>1.072</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.23999999999999</v>
+        <v>284.538</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.88</v>
+        <v>53.591</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.55</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.07</v>
+        <v>35.924</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.15</v>
+        <v>18.803</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8</v>
+        <v>2.963</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.53</v>
+        <v>35.736</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.7</v>
+        <v>15.633</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.61</v>
+        <v>13.871</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.45</v>
+        <v>16.349</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.35</v>
+        <v>22.417</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.41</v>
+        <v>66.277</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.36</v>
+        <v>9.916</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.73</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.56944444445</v>
+        <v>45134.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.77</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.33</v>
+        <v>9.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.06</v>
+        <v>28.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.01</v>
+        <v>22.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>42.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.19</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.36</v>
+        <v>6.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.23</v>
+        <v>10.11</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.6</v>
+        <v>11.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.89</v>
+        <v>11.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.79</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.99</v>
+        <v>14.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.4</v>
+        <v>8.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.63</v>
+        <v>147.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.5</v>
+        <v>28.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.86</v>
+        <v>19.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.7</v>
+        <v>9.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5</v>
+        <v>20.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.33</v>
+        <v>7.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.56</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.98</v>
+        <v>11.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.26</v>
+        <v>39.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.91</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.97</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.25</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_453.xlsx
+++ b/DATA_goal/Junction_Flooding_453.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45134.50694444445</v>
+        <v>44784.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.815</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.263</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.771</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.807</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.941</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.232</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.653</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.36</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.363</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.4</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.083</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.597</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.223</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.159</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.251</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.431</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.368</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.219</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.924</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.527</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.146</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.789</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.048</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.162</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.789</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.728</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.564</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.528</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.849</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.316</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.381</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.54</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.185</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45134.51388888889</v>
+        <v>44784.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.452</v>
+        <v>10.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.433</v>
+        <v>7.783</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.678</v>
+        <v>0.744</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.109</v>
+        <v>22.622</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.078</v>
+        <v>18.183</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.586</v>
+        <v>7.557</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>40.956</v>
+        <v>29.057</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.288</v>
+        <v>12.568</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.975</v>
+        <v>6.073</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.159</v>
+        <v>8.118</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.637</v>
+        <v>9.022</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.142</v>
+        <v>9.932</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.382</v>
+        <v>3.18</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.527</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.78</v>
+        <v>11.343</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.178000000000001</v>
+        <v>7.054</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.499</v>
+        <v>0.235</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.003</v>
+        <v>0.66</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.912</v>
+        <v>118.556</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.48</v>
+        <v>23.084</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.416</v>
+        <v>15.106</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.053</v>
+        <v>8.441000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.063</v>
+        <v>1.114</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.945</v>
+        <v>15.829</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.583</v>
+        <v>6.444</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.725</v>
+        <v>6.319</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.161</v>
+        <v>7.514</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.191</v>
+        <v>10.184</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>37.542</v>
+        <v>26.854</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.297</v>
+        <v>4.63</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.148</v>
+        <v>9.243</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45134.52083333334</v>
+        <v>44784.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.502</v>
+        <v>7.49</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.961</v>
+        <v>5.643</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.579</v>
+        <v>0.503</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>53.236</v>
+        <v>16.53</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.302</v>
+        <v>13.244</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19.282</v>
+        <v>5.502</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>72.86</v>
+        <v>24.144</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.668</v>
+        <v>9.137</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.107</v>
+        <v>4.468</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.354</v>
+        <v>5.861</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.353</v>
+        <v>6.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.484</v>
+        <v>7.237</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.159</v>
+        <v>2.309</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>19.174</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.231</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>16.231</v>
+        <v>5.16</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.101</v>
+        <v>0.139</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.072</v>
+        <v>0.456</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>284.538</v>
+        <v>84.236</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.591</v>
+        <v>16.884</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.698</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.924</v>
+        <v>11.066</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.803</v>
+        <v>6.153</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.963</v>
+        <v>0.803</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.736</v>
+        <v>12.526</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.633</v>
+        <v>4.698</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.871</v>
+        <v>4.612</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.349</v>
+        <v>5.449</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.417</v>
+        <v>7.355</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>66.277</v>
+        <v>22.409</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.916</v>
+        <v>3.362</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>22.127</v>
+        <v>6.735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45134.52777777778</v>
+        <v>44784.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.97</v>
+        <v>1.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.41</v>
+        <v>1.332</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.243</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.18</v>
+        <v>4.061</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.74</v>
+        <v>3.007</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.21</v>
+        <v>1.086</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.8</v>
+        <v>9.531000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.71</v>
+        <v>2.191</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.91</v>
+        <v>1.359</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.11</v>
+        <v>1.233</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.31</v>
+        <v>1.597</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.89</v>
+        <v>1.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.26</v>
+        <v>0.792</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>1.504</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.39</v>
+        <v>1.986</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.69</v>
+        <v>1.399</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.061</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.227</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.2</v>
+        <v>15.631</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.49</v>
+        <v>4.497</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>1.388</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.01</v>
+        <v>2.857</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.92</v>
+        <v>1.702</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.67</v>
+        <v>0.205</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.31</v>
+        <v>4.996</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>1.069</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.39</v>
+        <v>1.332</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>1.563</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.86</v>
+        <v>1.978</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.342</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.12</v>
+        <v>9.260999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.2</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.71</v>
+        <v>1.583</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.91</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_453.xlsx
+++ b/DATA_goal/Junction_Flooding_453.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.54861111111</v>
+        <v>45134.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.55555555555</v>
+        <v>45134.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.29</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.783</v>
+        <v>9.433</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.744</v>
+        <v>1.678</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.622</v>
+        <v>29.109</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.183</v>
+        <v>23.078</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.557</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.057</v>
+        <v>40.956</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.568</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.073</v>
+        <v>6.975</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.118</v>
+        <v>10.159</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.022</v>
+        <v>11.637</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.932</v>
+        <v>12.142</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.18</v>
+        <v>3.382</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.343</v>
+        <v>14.78</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.054</v>
+        <v>9.178000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.235</v>
+        <v>1.499</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.66</v>
+        <v>1.003</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.556</v>
+        <v>152.912</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.084</v>
+        <v>29.48</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.635</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.106</v>
+        <v>19.416</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.441000000000001</v>
+        <v>10.053</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.114</v>
+        <v>2.063</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.829</v>
+        <v>19.945</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.444</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.319</v>
+        <v>7.725</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.514</v>
+        <v>9.161</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.184</v>
+        <v>12.191</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>26.854</v>
+        <v>37.542</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.63</v>
+        <v>5.297</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.243</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.5625</v>
+        <v>45134.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.49</v>
+        <v>24.502</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.643</v>
+        <v>17.961</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.503</v>
+        <v>1.579</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.53</v>
+        <v>53.236</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.244</v>
+        <v>43.302</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.502</v>
+        <v>19.282</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.144</v>
+        <v>72.86</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.137</v>
+        <v>29.668</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.468</v>
+        <v>13.107</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.861</v>
+        <v>19.354</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.59</v>
+        <v>21.353</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.237</v>
+        <v>22.484</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.309</v>
+        <v>6.159</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.015</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>27.231</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.16</v>
+        <v>16.231</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.139</v>
+        <v>1.101</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.456</v>
+        <v>1.072</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.236</v>
+        <v>284.538</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.884</v>
+        <v>53.591</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.552</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.066</v>
+        <v>35.924</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.153</v>
+        <v>18.803</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.803</v>
+        <v>2.963</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.526</v>
+        <v>35.736</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.698</v>
+        <v>15.633</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.612</v>
+        <v>13.871</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.449</v>
+        <v>16.349</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.355</v>
+        <v>22.417</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.409</v>
+        <v>66.277</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.362</v>
+        <v>9.916</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.735</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.56944444445</v>
+        <v>45134.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.77</v>
+        <v>12.97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.332</v>
+        <v>9.41</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.243</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.061</v>
+        <v>28.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.007</v>
+        <v>22.74</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.086</v>
+        <v>10.21</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.531000000000001</v>
+        <v>42.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.191</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.359</v>
+        <v>6.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.233</v>
+        <v>10.11</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.597</v>
+        <v>11.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.89</v>
+        <v>11.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.792</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.504</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.986</v>
+        <v>14.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.399</v>
+        <v>8.69</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.061</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.227</v>
+        <v>0.62</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.631</v>
+        <v>147.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.497</v>
+        <v>28.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.388</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.857</v>
+        <v>19.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.702</v>
+        <v>9.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.205</v>
+        <v>1.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.996</v>
+        <v>20.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.069</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.332</v>
+        <v>7.39</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.563</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.978</v>
+        <v>11.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.342</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.260999999999999</v>
+        <v>39.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9429999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.583</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.91</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.97</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.25</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>
